--- a/11-CollaborationList/UCL.xlsx
+++ b/11-CollaborationList/UCL.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/rmapbtc_ucl_ac_uk/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB697740-85FE-304E-85F3-D7DFBDB1D63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C8EBFE5A-010E-DE4B-953D-B7F90AE0BA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C3DF4A4-07CB-4B3F-9350-F6E683C7F10F}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{5FAB20B0-5FD5-FD49-A8D1-27020549867D}"/>
+    <workbookView xWindow="-35250" yWindow="2550" windowWidth="28800" windowHeight="15345" xr2:uid="{5FAB20B0-5FD5-FD49-A8D1-27020549867D}"/>
   </bookViews>
   <sheets>
     <sheet name="UCL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Title</t>
   </si>
@@ -76,9 +89,6 @@
     <t>Cox</t>
   </si>
   <si>
-    <t>B.</t>
-  </si>
-  <si>
     <t>b.cox@ucl.ac.uk</t>
   </si>
   <si>
@@ -100,16 +110,28 @@
     <t>Amos</t>
   </si>
   <si>
-    <t>R.</t>
-  </si>
-  <si>
     <t>r.amos@ucl.ac.uk</t>
   </si>
   <si>
-    <t>R.Amos</t>
-  </si>
-  <si>
     <t>WPM WPA</t>
+  </si>
+  <si>
+    <t>R.A. Amos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/Prof. </t>
+  </si>
+  <si>
+    <t>0000-0001-8266-772X</t>
+  </si>
+  <si>
+    <t>B.T.</t>
+  </si>
+  <si>
+    <t>R.A.</t>
+  </si>
+  <si>
+    <t>0000-0001-7296-4093</t>
   </si>
 </sst>
 </file>
@@ -996,30 +1018,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F21C1CD-2874-A140-9DF8-5550005965E4}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1077,57 +1099,63 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
       <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
